--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518433.214565413</v>
+        <v>1622612.849016484</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103836</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>71.03196298775364</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>15.72846594284005</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>307.6055777962494</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>119.5542949307275</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>109.205229585096</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>58.92805047992073</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>292.3520130340207</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>174.7756306538732</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>54.02789918689258</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.6687625091745</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>112.528443452332</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>40.15381658332852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.3062202753124</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>218.8658348647373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>18.7084378797738</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>19.86507844888254</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788180832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>137.9792024346629</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>46.15319674220996</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>102.3739644559493</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>134.0367616438392</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>111.551214499872</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.5809963705863</v>
+        <v>2021.12496065183</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6448134426794</v>
+        <v>1852.188777723924</v>
       </c>
       <c r="D4" t="n">
-        <v>474.5281740303436</v>
+        <v>1852.188777723924</v>
       </c>
       <c r="E4" t="n">
-        <v>326.6150804479505</v>
+        <v>1704.27568414153</v>
       </c>
       <c r="F4" t="n">
-        <v>179.7251329500401</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G4" t="n">
-        <v>179.7251329500401</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>2759.324260730338</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>2469.907090693378</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.022040344356</v>
+        <v>2241.91753979536</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.229461200826</v>
+        <v>2021.12496065183</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
         <v>1548.419770374778</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2698.624700675791</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2698.624700675791</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.158942414711</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.019610438899</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.3698800184446</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>717.3698800184446</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>567.2532406061089</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>567.2532406061089</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>420.3632931081985</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4723,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>899.0183448486844</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.0183448486844</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,43 +4886,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>825.6506006198139</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.8580214762837</v>
+        <v>659.431657018599</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5194,52 +5196,52 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,70 +5412,70 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.469384076044</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
         <v>1501.108204237296</v>
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5516,46 +5518,46 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021788</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2971.848747074062</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>2802.912564146155</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>2652.795924733819</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>2504.882831151426</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151426</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866306</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673041</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>3891.69651198281</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>3602.279341945849</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>3374.289791047832</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>3153.497211904302</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,28 +6007,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
@@ -6078,16 +6080,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1279.328525141787</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1051.338974243769</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>2438.670847218162</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F31" t="n">
-        <v>2438.670847218162</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G31" t="n">
-        <v>2438.670847218162</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>113.8823988549239</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306004</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378097</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420638</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.617138214751</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177791</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279774</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136244</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,64 +7071,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.590151828076</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
         <v>2018.514925172274</v>
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>2991.243785952652</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>2841.127146540317</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>2693.214052957923</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2693.214052957923</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2526.017953672803</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2384.306122515001</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.700204330166</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.624977674364</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>2565.513299557012</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.440648734749</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>923.4098145049279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>773.2931750925922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>625.380081510199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>478.4901340122886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>311.2940347271686</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2334.285089135946</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.285089135946</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2045.209862480144</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.37549921168723</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0.3575234924700794</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>68.49784254931254</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.9838267404995</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.587414922129085</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>67.31863952450689</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.58627496645</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4693302300315</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>79.42624789262538</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.11263957635557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>115.0314858713389</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.257951202384618</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>69.47507150177263</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.405192951002392e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26433,7 +26435,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26445,16 +26447,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26482,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603958</v>
+        <v>-995795.3787603955</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671972</v>
+        <v>332949.3669671966</v>
       </c>
       <c r="D6" t="n">
-        <v>332949.3669671972</v>
+        <v>332949.3669671968</v>
       </c>
       <c r="E6" t="n">
-        <v>84503.49005539913</v>
+        <v>84503.49005539827</v>
       </c>
       <c r="F6" t="n">
         <v>409915.951862754</v>
       </c>
       <c r="G6" t="n">
-        <v>409915.9518627537</v>
+        <v>409915.9518627542</v>
       </c>
       <c r="H6" t="n">
-        <v>409915.9518627544</v>
+        <v>409915.9518627542</v>
       </c>
       <c r="I6" t="n">
+        <v>409915.951862754</v>
+      </c>
+      <c r="J6" t="n">
+        <v>192384.7494654767</v>
+      </c>
+      <c r="K6" t="n">
         <v>409915.9518627541</v>
-      </c>
-      <c r="J6" t="n">
-        <v>192384.7494654764</v>
-      </c>
-      <c r="K6" t="n">
-        <v>409915.9518627542</v>
       </c>
       <c r="L6" t="n">
         <v>409915.9518627542</v>
@@ -26555,13 +26557,13 @@
         <v>324860.9239272422</v>
       </c>
       <c r="N6" t="n">
+        <v>409915.951862754</v>
+      </c>
+      <c r="O6" t="n">
+        <v>409915.9518627544</v>
+      </c>
+      <c r="P6" t="n">
         <v>409915.9518627541</v>
-      </c>
-      <c r="O6" t="n">
-        <v>409915.9518627539</v>
-      </c>
-      <c r="P6" t="n">
-        <v>409915.951862754</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024422</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>256.7665117192695</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.3890850351776</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>129.0265489714807</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>20.1466806738855</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>229.6866737866856</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>56.82057867393222</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>268.8242079902142</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>77.3790876444483</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>5.056349528064118</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>171.6817562021446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000066</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722579</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>272.9327299394441</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>302.4748895856764</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622612.849016484</v>
+        <v>1618600.239002491</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.7760087079214</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>92.47445699814351</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>71.03196298775364</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>218.7703677250963</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.730729942234</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>119.5542949307275</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>51.06561173381984</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>237.3694549950318</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>58.92805047992073</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.7756306538732</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>238.9171930685451</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>143.9002723490403</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899574</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6687625091745</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="H19" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>30.65104903283332</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>64.91921363453586</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>139.7072979240948</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>19.86507844888254</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="38">
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>46.15319674220996</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>18.16423677622388</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2678.274518176916</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228005</v>
@@ -4421,7 +4421,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2021.12496065183</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C4" t="n">
-        <v>1852.188777723924</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>1852.188777723924</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>1704.27568414153</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578143</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936225</v>
+        <v>1706.314378669203</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936225</v>
+        <v>1706.314378669203</v>
       </c>
       <c r="V4" t="n">
-        <v>2759.324260730338</v>
+        <v>1451.629890463316</v>
       </c>
       <c r="W4" t="n">
-        <v>2469.907090693378</v>
+        <v>1162.212720426355</v>
       </c>
       <c r="X4" t="n">
-        <v>2241.91753979536</v>
+        <v>934.2231695283381</v>
       </c>
       <c r="Y4" t="n">
-        <v>2021.12496065183</v>
+        <v>713.4305903848079</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.982127379311</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2303.982127379311</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4670,28 +4670,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>770.2940923545295</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>763.3485916053261</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>348.2761414503225</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3155.791869823214</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621292</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621292</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.431657018599</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.469384076044</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.867919098985</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5609,13 +5609,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.530292372932</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>853.5941094450255</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>703.4774700326898</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>555.5643764502967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.37805728168</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346702</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.178757203172</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.0218491516692</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6557,13 +6557,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>422.7903292978459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>255.5942300127259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>113.8823988549239</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3160.179968880559</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>2991.243785952652</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>2841.127146540317</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2693.214052957923</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2693.214052957923</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2526.017953672803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2384.306122515001</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4623.787448650995</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>4334.712221995193</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>4080.027733789307</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>3790.610563752346</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>3562.621012854329</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>3341.828433710799</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.533690297528835</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3575234924700794</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>147.3599015160444</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.587414922129085</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>61.40075786968299</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>35.11263957635557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26456,10 +26456,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603955</v>
+        <v>-995795.3787603953</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671966</v>
+        <v>332949.3669671969</v>
       </c>
       <c r="D6" t="n">
-        <v>332949.3669671968</v>
+        <v>332949.3669671967</v>
       </c>
       <c r="E6" t="n">
-        <v>84503.49005539827</v>
+        <v>84156.11080104166</v>
       </c>
       <c r="F6" t="n">
-        <v>409915.951862754</v>
+        <v>409568.5726083974</v>
       </c>
       <c r="G6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="H6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083968</v>
       </c>
       <c r="I6" t="n">
-        <v>409915.951862754</v>
+        <v>409568.5726083969</v>
       </c>
       <c r="J6" t="n">
-        <v>192384.7494654767</v>
+        <v>192037.37021112</v>
       </c>
       <c r="K6" t="n">
-        <v>409915.9518627541</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="L6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="M6" t="n">
-        <v>324860.9239272422</v>
+        <v>324513.5446728852</v>
       </c>
       <c r="N6" t="n">
-        <v>409915.951862754</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.9518627544</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627541</v>
+        <v>409568.5726083971</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>52.95783295555918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>256.7665117192695</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>74.3890850351776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.7785815510728469</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.54216182877354</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>229.6866737866856</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>235.146226471793</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>57.23830939228867</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>268.8242079902142</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.056349528064118</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,19 +31837,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35506,10 +35506,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1618600.239002491</v>
+        <v>1620360.769305278</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.7760087079214</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>241.6499314317631</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>218.7703677250963</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>108.816869201471</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>298.730729942234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>324.482353263935</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.06561173381984</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>353.6834162611675</v>
       </c>
       <c r="H8" t="n">
-        <v>237.3694549950318</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>72.89138480951716</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.9171930685451</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>143.9002723490403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36.21070476472222</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.3923706291105</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.26260713376619</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>139.1630968205466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>246.8141177896371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>45.66054613217651</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1564.446462565634</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1178.658209967389</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>767.6723051777819</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>352.5998550227784</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y2" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.7821255545682</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1706.314378669203</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1706.314378669203</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.629890463316</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.212720426355</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X4" t="n">
-        <v>934.2231695283381</v>
+        <v>1285.852497586828</v>
       </c>
       <c r="Y4" t="n">
-        <v>713.4305903848079</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796416</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796416</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796416</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801002</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398575</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1875.713122094735</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1621.028633888848</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1331.611463851887</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1103.62191295387</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.8293338103399</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952774</v>
+        <v>1156.082344952777</v>
       </c>
       <c r="E8" t="n">
-        <v>770.2940923545295</v>
+        <v>770.2940923545323</v>
       </c>
       <c r="F8" t="n">
-        <v>763.3485916053261</v>
+        <v>763.3485916053288</v>
       </c>
       <c r="G8" t="n">
-        <v>348.2761414503225</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1431.27956183357</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5281,10 +5281,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>251.7887545925279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,52 +6223,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6320,10 +6320,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7362,22 +7362,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1959.113366595131</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.533690297528835</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>112.4047682534901</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.11263957635547</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>147.3599015160444</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>119.8635921600923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603953</v>
+        <v>-995795.3787603957</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671969</v>
+        <v>332949.366967197</v>
       </c>
       <c r="D6" t="n">
-        <v>332949.3669671967</v>
+        <v>332949.3669671968</v>
       </c>
       <c r="E6" t="n">
-        <v>84156.11080104166</v>
+        <v>84468.7521299636</v>
       </c>
       <c r="F6" t="n">
-        <v>409568.5726083974</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="G6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="H6" t="n">
-        <v>409568.5726083968</v>
+        <v>409881.2139373185</v>
       </c>
       <c r="I6" t="n">
-        <v>409568.5726083969</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="J6" t="n">
-        <v>192037.37021112</v>
+        <v>192350.011540041</v>
       </c>
       <c r="K6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373185</v>
       </c>
       <c r="L6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373185</v>
       </c>
       <c r="M6" t="n">
-        <v>324513.5446728852</v>
+        <v>324826.1860018066</v>
       </c>
       <c r="N6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="O6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="P6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373185</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.95783295555918</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52.95783295555739</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7785815510728469</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>109.7677841506238</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>66.54216182877354</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>82.39369247777648</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>235.146226471793</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>57.23830939228594</v>
       </c>
       <c r="H8" t="n">
-        <v>57.23830939228867</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>47.29464513706782</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34386,13 +34386,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
